--- a/biology/Médecine/Tumeur_de_Wilms/Tumeur_de_Wilms.xlsx
+++ b/biology/Médecine/Tumeur_de_Wilms/Tumeur_de_Wilms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tumeur de Wilms ou néphroblastome représente plus de 90 % des tumeurs du rein chez l'enfant. Cette maladie cancéreuse est responsable de 5 à 14 % des cancers de l'enfant. Il est très différent du cancer du rein chez l'adulte.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette tumeur se développe à partir du tissu à l'origine du rein : le blastème métanéphrotique de l'embryon. Les modèles actuels de la cancérogenèse indiquent qu'une mutation génétique laisse persister ce tissu embryonnaire après la vie intra-utérine.
 La tumeur de Wilms a un potentiel malin local et général. Elle se présente le plus souvent comme une masse intra-abdominale chez un enfant bien portant. Des douleurs abdominales, de la fièvre, une hématurie ou une anémie ne se rencontrent que dans un tiers des cas.
@@ -547,12 +561,14 @@
           <t>Biologie moléculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des mutations du gène WT1 (en) sur le chromosome 11p13 sont observées chez environ 20 % des tumeurs de Wilms[1],[2].
-Au moins la moitié des patients atteints de la tumeur de Wilms et porteurs d'une mutation sur le gène WT1 sont également porteurs de mutations de CTNNB1, le gène codant la bêta-caténine[3].
-Un gène situé sur le chromosome X, FAM123B (en) ou WTX, est inactivé chez 30 % des cas de tumeur de Wilms[4]. Cependant dans la plupart des cas aucune mutation n'est retrouvée sur l'un de ces gènes[5].
-Des mutations ont aussi été retrouvées sur les gènes Drosha (en) et DGCR8 (en). Ces gènes, lorsqu'ils présentent des anomalies, désactivent partiellement les mécanismes moléculaires chargés de la formation des micro-ARN. Ceux-ci assurent la régulation de l'ARN messager et sont capables par conséquent de reprogrammer complètement les cellules[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des mutations du gène WT1 (en) sur le chromosome 11p13 sont observées chez environ 20 % des tumeurs de Wilms,.
+Au moins la moitié des patients atteints de la tumeur de Wilms et porteurs d'une mutation sur le gène WT1 sont également porteurs de mutations de CTNNB1, le gène codant la bêta-caténine.
+Un gène situé sur le chromosome X, FAM123B (en) ou WTX, est inactivé chez 30 % des cas de tumeur de Wilms. Cependant dans la plupart des cas aucune mutation n'est retrouvée sur l'un de ces gènes.
+Des mutations ont aussi été retrouvées sur les gènes Drosha (en) et DGCR8 (en). Ces gènes, lorsqu'ils présentent des anomalies, désactivent partiellement les mécanismes moléculaires chargés de la formation des micro-ARN. Ceux-ci assurent la régulation de l'ARN messager et sont capables par conséquent de reprogrammer complètement les cellules.
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En Europe, le traitement de ce cancer suit les recommandations SIOP (Société Internationale d'Oncologie Pédiatrique) et se fait en trois temps dont le principal est la chirurgie :
 Chimiothérapie initiale (ou pré-opératoire, dite néo-adjuvante) qui associe l'actinomycine D et la vincristine et qui vise une réduction du volume de la tumeur, ainsi qu'un durcissement (rendu fibreux) en vue de la chirurgie.
@@ -616,7 +634,9 @@
           <t>Pronostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cancer est relativement bien soigné, atteignant 90 % de guérison. Cependant, il y a de nettes différences entre les différents cas histologiques. Le suivi comprend à la fois la recherche éventuelle de métastases ainsi que des séquelles éventuelles liées à la chimiothérapie et à la radiothérapie.
 </t>
